--- a/resources/api_document/staging_api_doc.xlsx
+++ b/resources/api_document/staging_api_doc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\Pearson_Prep\Pearson_Prep_API_Test_Automation\resources\api_document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\Pearson_Prep\pearson_prep_api_test_automation\resources\api_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="119">
   <si>
     <t>API_NAME</t>
   </si>
@@ -233,6 +233,12 @@
     }
   ]
 }</t>
+  </si>
+  <si>
+    <t>Search Expert Decks using Expert Deck Service</t>
+  </si>
+  <si>
+    <t>Create An Expert Deck using Expert Deck Service</t>
   </si>
   <si>
     <t>Create Short Answer Type Question using Question Service</t>
@@ -365,64 +371,19 @@
     <t>Document Service Health</t>
   </si>
   <si>
+    <t>https://documentservice-qa.stg-prsn.com/health</t>
+  </si>
+  <si>
     <t>Smart Card Creation Health</t>
   </si>
   <si>
-    <t>htpps://questionaggrigator.stg-prsn.com/api/aggregated_questions/images/upload</t>
-  </si>
-  <si>
-    <t>https://questionservice.stg-prsn.com/api/questions</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/decks</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/decks/users</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/categories</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/decks</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/decks/users</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/questions</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/questions/copy</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/learninganalytics/recommendations</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/learninganalytics/activities</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/aggregated_questions/text</t>
+    <t>Edit An Expert Deck using Expert Deck Service</t>
+  </si>
+  <si>
+    <t>Delete Expert Deck by ID using Expert Deck Service</t>
   </si>
   <si>
     <t>https://smartcards.prd-prsn.com/health</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/sync</t>
-  </si>
-  <si>
-    <t>https://documentservice-qa.stg-prsn.com/health</t>
-  </si>
-  <si>
-    <t>Create An Expert Deck using Expert Deck Service</t>
-  </si>
-  <si>
-    <t>Edit An Expert Deck using Expert Deck Service</t>
-  </si>
-  <si>
-    <t>Search Expert Decks using Expert Deck Service</t>
-  </si>
-  <si>
-    <t>Delete Expert Deck by ID using Expert Deck Service</t>
   </si>
   <si>
     <t>{
@@ -434,6 +395,7 @@
   },
   "cardPreview": #cardPreview,
   "categoryId": "#categoryId",
+  "createdAt": "#createdAt",
   "deckAuthor": "#deckAuthorName",
   "deckAuthorId": "#deckAuthorId",
   "description": "#description",
@@ -450,6 +412,7 @@
   },
   "expert": true,
   "expertDeck": true,
+  "id": "#id",
   "keywords": [
     "#keywords"
   ],
@@ -495,15 +458,6 @@
   "type": "#type",
   "userId": "#userId"
 }</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/cards/cloud</t>
-  </si>
-  <si>
-    <t>Add Expert Deck To My Deck using Aggregation Service</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/store/purchase/decks</t>
   </si>
   <si>
     <t>{
@@ -689,19 +643,13 @@
 }</t>
   </si>
   <si>
+    <t>Add Expert Deck To My Deck using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Get Production PI Token</t>
+  </si>
+  <si>
     <t>https://piapi-internal.openclass.com/tokens/</t>
-  </si>
-  <si>
-    <t>Get Production PI Token</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {
-  "userName":"#username",
-  "password":"#password"
- }</t>
-  </si>
-  <si>
-    <t>Create Cards in Aggregation Service using Google Drive File Upload</t>
   </si>
   <si>
     <t>Send A Feedback</t>
@@ -717,28 +665,16 @@
 }</t>
   </si>
   <si>
+    <t>Send A Feedback using Aggregation Service</t>
+  </si>
+  <si>
     <t>Get All Feedback</t>
   </si>
   <si>
-    <t>Send A Feedback using Aggregation Service</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/feedback</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/store</t>
-  </si>
-  <si>
-    <t>https://pushnotification.stg-prsn.com/api/feedback</t>
-  </si>
-  <si>
-    <t>https://pushnotification.stg-prsn.com/api/feedback/apps/sfc_mvp</t>
+    <t>Create Cards in Aggregation Service using Google Drive File Upload</t>
   </si>
   <si>
     <t>Send Force Update</t>
-  </si>
-  <si>
-    <t>https://pushnotification.stg-prsn.com/api/version</t>
   </si>
   <si>
     <t>Get Force Update Latest Version</t>
@@ -753,14 +689,192 @@
 }</t>
   </si>
   <si>
+    <t>Get the default 9 decks Using Expert Deck Service</t>
+  </si>
+  <si>
+    <t>Create All Type Question using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Edit All Type Question using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Create All Type Question using Question Service</t>
+  </si>
+  <si>
+    <t>Edit All Type Question using Question Service</t>
+  </si>
+  <si>
+    <t>Get Questions Count using Aggregation Service</t>
+  </si>
+  <si>
+    <t>PLA Get Content API</t>
+  </si>
+  <si>
+    <t>{
+  "archived": #isArchived,
+  "book": {
+    "bookAuthor": "#bookAuthorName",
+    "bookTitle": "#bookTitle",
+    "chapter": "#chapter"
+  },
+  "cardPreview": #cardPreview,
+  "categoryId": "#categoryId",
+  "deckAuthor": "#deckAuthorName",
+  "deckAuthorId": "#deckAuthorId",
+  "description": "#description",
+  "downloads": #downloads,
+  "epochTime": {
+    "createdAt": "",
+    "updatedAt": ""
+  },
+  "examDate": "#examDate",
+  "examReminder": {
+    "endDate": "2018-01-30T04:03:33.042Z",
+    "startDate": "2018-01-30T04:03:33.042Z",
+    "time": "#time"
+  },
+  "expert": true,
+  "expertDeck": true,
+  "keywords": [
+    "#keywords"
+  ],
+  "noOfCards": #noOfCards,
+  "notificationSettings": {
+    "areNotificationsEnabled": #areNotificationsEnabled,
+    "notificationFrequency": "#notificationFrequency",
+    "notificationTime": "#notificationTime"
+  },
+  "parentDeckId": "#parentDeckId",
+  "progress": #progress,
+  "purchaseInfo": {
+    "price": #price,
+    "purchasedDate": "2018-01-30T04:03:33.042Z",
+    "sku": "#sku"
+  },
+  "starred": #starred,
+  "status": "#status",
+  "subjectId": "#subjectId",
+  "tags": [
+    "#tags"
+  ],
+  "tempDeckId": "#tempDeckId",
+  "thumbnailUrl": "#thumbnailUrl",
+  "title": "#title",
+  "updatedAt": "2018-01-30T04:03:33.042Z",
+  "userId": "#userId"
+}</t>
+  </si>
+  <si>
+    <t>Create Expert Bundle</t>
+  </si>
+  <si>
+    <t>{
+  "subject":"#subject",
+  "title": "#title",
+  "status": #status,
+  "previewcards": #previewcards,
+  "skuId": "#skuId",
+  "bookAuthor": "#bookAuthor",
+  "bookTitle": "#bookTitle",
+  "description": "#description",
+  "deckId": ["#id1","#id2"],
+  "userId": "#userId",
+  "createdSource": "#createdSource",
+  "price": #price,
+  "keywords": ["#keyword1","#keyword2"],
+  "noOfDecks": #noOfDecks
+}</t>
+  </si>
+  <si>
+    <t>Edit Expert Bundle</t>
+  </si>
+  <si>
+    <t>Get Expert Bundle</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/feedback</t>
+  </si>
+  <si>
     <t>https://questionaggrigator.stg-prsn.com/api/version</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/decks/onbording/users</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/aggregated_questions/text</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/decks</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/decks/users</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/questions</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/questions/copy</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/learninganalytics/recommendations</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/learninganalytics/activities</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/cards/cloud</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/store/purchase/decks</t>
+  </si>
+  <si>
+    <t>https://questionaggrigator.stg-prsn.com/api/questions/count</t>
+  </si>
+  <si>
+    <t>https://deckapi.stg-prsn.com/api/store</t>
+  </si>
+  <si>
+    <t>https://deckapi.stg-prsn.com/api/decks</t>
+  </si>
+  <si>
+    <t>https://deckapi.stg-prsn.com/api/decks/users</t>
+  </si>
+  <si>
+    <t>https://deckapi.stg-prsn.com/api/categories</t>
+  </si>
+  <si>
+    <t>https://deckapi.stg-prsn.com/api/sync</t>
+  </si>
+  <si>
+    <t>https://deckapi.stg-prsn.com/api/bundle/expert</t>
+  </si>
+  <si>
+    <t>https://deckapi.stg-prsn.com/api/store/users</t>
+  </si>
+  <si>
+    <t>https://questionservice.stg-prsn.com/api/questions</t>
+  </si>
+  <si>
+    <t>https://questionservice.stg-prsn.com/api/aggregated_questions/images/upload</t>
+  </si>
+  <si>
+    <t>https://pushnotification.stg-prsn.com/api/feedback</t>
+  </si>
+  <si>
+    <t>https://pushnotification.stg-prsn.com/api/feedback/apps/sfc_mvp</t>
+  </si>
+  <si>
+    <t>https://pushnotification.stg-prsn.com/api/version</t>
+  </si>
+  <si>
+    <t>https://ale-pla-prd-alespacedrepservice.prd-prsn.com/v1/flashcards/sfc/content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -791,6 +905,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -831,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -854,12 +975,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -943,6 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -954,14 +1102,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2182,16 +2355,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" style="1" customWidth="1"/>
   </cols>
@@ -2211,31 +2384,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,10 +2427,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -2266,38 +2439,38 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -2306,10 +2479,10 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
@@ -2318,56 +2491,56 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,7 +2548,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>5</v>
@@ -2389,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>8</v>
@@ -2401,7 +2574,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>8</v>
@@ -2413,7 +2586,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>10</v>
@@ -2425,7 +2598,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>9</v>
@@ -2439,7 +2612,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>8</v>
@@ -2451,7 +2624,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>5</v>
@@ -2460,10 +2633,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
@@ -2472,38 +2645,38 @@
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -2512,10 +2685,10 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -2524,440 +2697,573 @@
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="26" t="s">
+      <c r="B29" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D29" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="30" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="B30" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="B31" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="B32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+    <row r="33" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="B33" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="26"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="24" t="s">
+      <c r="B35" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="B36" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="24" t="s">
+      <c r="B37" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D37" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B38" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="24" t="s">
+      <c r="B39" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D39" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="B40" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D40" s="22" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="33"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="33"/>
+        <v>9</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="33"/>
+      <c r="D43" s="34"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="21" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="34"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C55" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="34"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="33" t="s">
+      <c r="D56" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="24" t="s">
+      <c r="D57" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="34"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="34"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="42"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="33" t="s">
+      <c r="B62" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="33"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="D62" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="36" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+      <c r="B63" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="35" t="s">
+      <c r="B64" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="33"/>
+      <c r="D64" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId1" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B7" r:id="rId3" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B8" r:id="rId4" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B9" r:id="rId5" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B10" r:id="rId6" display="http://10.199.253.187:8085/api/aggregated_questions/text"/>
     <hyperlink ref="B11" r:id="rId7" display="http://10.199.253.187:8070/api/aggregated_questions/images/upload"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B14" r:id="rId9"/>
-    <hyperlink ref="B17" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B34:B37" r:id="rId16" display="http://10.98.199.63:8085/api/categories"/>
-    <hyperlink ref="B29:B32" r:id="rId17" display="http://10.98.199.63:8085/api/decks"/>
-    <hyperlink ref="B37" r:id="rId18"/>
-    <hyperlink ref="B33:B36" r:id="rId19" display="http://10.98.199.63:8085/api/categories"/>
-    <hyperlink ref="B32" r:id="rId20"/>
-    <hyperlink ref="B28:B31" r:id="rId21" display="http://10.98.199.63:8085/api/decks"/>
-    <hyperlink ref="B30" r:id="rId22"/>
-    <hyperlink ref="B38" r:id="rId23"/>
-    <hyperlink ref="B39" r:id="rId24"/>
-    <hyperlink ref="B36" r:id="rId25"/>
-    <hyperlink ref="B12" r:id="rId26"/>
-    <hyperlink ref="B21" r:id="rId27"/>
-    <hyperlink ref="B40" r:id="rId28"/>
-    <hyperlink ref="B41" r:id="rId29"/>
-    <hyperlink ref="B42" r:id="rId30"/>
+    <hyperlink ref="B13" r:id="rId8" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B14" r:id="rId9" display="http://10.199.253.187:8085/api/decks"/>
+    <hyperlink ref="B17" r:id="rId10" display="http://10.199.253.187:8085/api/decks"/>
+    <hyperlink ref="B15" r:id="rId11" display="http://10.199.253.187:8085/api/decks/users"/>
+    <hyperlink ref="B16" r:id="rId12" display="http://10.199.253.187:8085/api/decks"/>
+    <hyperlink ref="B18" r:id="rId13" display="http://10.199.253.187:8085/api/decks"/>
+    <hyperlink ref="B19" r:id="rId14" display="http://10.199.253.187:8085/api/questions"/>
+    <hyperlink ref="B20" r:id="rId15" display="http://10.199.253.187:8085/api/questions/copy"/>
+    <hyperlink ref="B35:B38" r:id="rId16" display="http://10.98.199.63:8085/api/categories"/>
+    <hyperlink ref="B30:B33" r:id="rId17" display="http://10.98.199.63:8085/api/decks"/>
+    <hyperlink ref="B38" r:id="rId18" display="http://10.199.253.187:8090/api/categories"/>
+    <hyperlink ref="B34:B37" r:id="rId19" display="http://10.98.199.63:8085/api/categories"/>
+    <hyperlink ref="B33" r:id="rId20" display="http://10.199.253.187:8090/api/decks"/>
+    <hyperlink ref="B29:B32" r:id="rId21" display="http://10.98.199.63:8085/api/decks"/>
+    <hyperlink ref="B31" r:id="rId22" display="http://10.199.253.187:8090/api/decks/users"/>
+    <hyperlink ref="B39" r:id="rId23" display="http://10.199.253.187:8085/api/learninganalytics/recommendations"/>
+    <hyperlink ref="B40" r:id="rId24" display="http://10.199.253.187:8085/api/learninganalytics/activities"/>
+    <hyperlink ref="B37" r:id="rId25" display="http://10.199.253.187:8090/api/categories"/>
+    <hyperlink ref="B41" r:id="rId26" display="http://10.199.253.187:8090/api/store"/>
+    <hyperlink ref="B28" r:id="rId27" display="http://10.199.253.187:8090/api/store"/>
+    <hyperlink ref="B12" r:id="rId28" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B21" r:id="rId29" display="http://10.199.253.187:8085/api/questions"/>
+    <hyperlink ref="B42" r:id="rId30" display="http://10.199.253.187:8090/api/sync"/>
     <hyperlink ref="B43" r:id="rId31"/>
-    <hyperlink ref="B31" r:id="rId32"/>
-    <hyperlink ref="B29" r:id="rId33"/>
-    <hyperlink ref="B22" r:id="rId34"/>
-    <hyperlink ref="B23" r:id="rId35"/>
-    <hyperlink ref="B28" r:id="rId36"/>
-    <hyperlink ref="B33" r:id="rId37"/>
-    <hyperlink ref="B34" r:id="rId38"/>
-    <hyperlink ref="B35" r:id="rId39"/>
-    <hyperlink ref="B24" r:id="rId40"/>
-    <hyperlink ref="B25" r:id="rId41"/>
-    <hyperlink ref="B26" r:id="rId42"/>
-    <hyperlink ref="B27" r:id="rId43"/>
-    <hyperlink ref="B44" r:id="rId44"/>
-    <hyperlink ref="B48" r:id="rId45"/>
-    <hyperlink ref="B49" r:id="rId46"/>
-    <hyperlink ref="B3" r:id="rId47"/>
-    <hyperlink ref="B50" r:id="rId48"/>
-    <hyperlink ref="B52" r:id="rId49"/>
-    <hyperlink ref="B45:B47" r:id="rId50" display="https://deckapi.stg-prsn.com/api/store"/>
-    <hyperlink ref="B51" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B44" r:id="rId32"/>
+    <hyperlink ref="B45" r:id="rId33"/>
+    <hyperlink ref="B46" r:id="rId34" display="http://10.199.253.187:8090/api/store"/>
+    <hyperlink ref="B47" r:id="rId35" display="http://10.199.253.187:8090/api/store"/>
+    <hyperlink ref="B48" r:id="rId36" display="http://10.199.253.187:8085/api/cards/cloud"/>
+    <hyperlink ref="B49" r:id="rId37" display="http://10.199.253.187:8085/api/store/purchase/decks"/>
+    <hyperlink ref="B2" r:id="rId38"/>
+    <hyperlink ref="B51" r:id="rId39" display="http://10.199.253.83:8082/api/feedback/apps/sfc_mvp"/>
+    <hyperlink ref="B50" r:id="rId40"/>
+    <hyperlink ref="B52" r:id="rId41" display="http://10.199.240.44:8085/api/feedback"/>
+    <hyperlink ref="B53" r:id="rId42" display="http://10.199.253.83:8082/api/version"/>
+    <hyperlink ref="B54" r:id="rId43" display="http://10.199.240.44:8085/api/version"/>
+    <hyperlink ref="B55" r:id="rId44" display="http://10.199.240.44:8085/api/decks/onbording/users"/>
+    <hyperlink ref="B57" r:id="rId45" display="http://10.199.253.187:8085/api/questions"/>
+    <hyperlink ref="B56" r:id="rId46" display="http://10.199.253.187:8085/api/questions"/>
+    <hyperlink ref="B59" r:id="rId47" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B58" r:id="rId48" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B60" r:id="rId49" display="http://10.199.253.187:8085/api/questions/count"/>
+    <hyperlink ref="B61" r:id="rId50"/>
+    <hyperlink ref="B63" r:id="rId51" display="http://10.199.253.187:8090/api/bundle/expert"/>
+    <hyperlink ref="B64" r:id="rId52" display="http://10.199.253.187:8090/api/store/users"/>
+    <hyperlink ref="B62" r:id="rId53" display="http://10.199.253.187:8090/api/bundle/expert"/>
+    <hyperlink ref="B27" r:id="rId54" display="http://10.199.253.187:8085/api/questions"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId54"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/resources/api_document/staging_api_doc.xlsx
+++ b/resources/api_document/staging_api_doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\Pearson_Prep\pearson_prep_api_test_automation\resources\api_document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\Pearson_Prep\Pearson_Prep_API_Test_Automation\resources\api_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
   <si>
     <t>API_NAME</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>https://ale-pla-prd-alespacedrepservice.prd-prsn.com/v1/flashcards/sfc/content</t>
+  </si>
+  <si>
+    <t>BODY_TYPE</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1135,6 +1138,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2355,21 +2361,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2379,11 +2385,14 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>71</v>
       </c>
@@ -2393,11 +2402,12 @@
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2407,11 +2417,12 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2421,11 +2432,12 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -2435,9 +2447,10 @@
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="43"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2447,11 +2460,12 @@
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -2461,11 +2475,12 @@
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -2475,9 +2490,10 @@
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -2487,9 +2503,10 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="43"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
@@ -2499,11 +2516,12 @@
       <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>45</v>
       </c>
@@ -2513,9 +2531,10 @@
       <c r="C11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="30"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
@@ -2525,11 +2544,12 @@
       <c r="C12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
@@ -2539,11 +2559,12 @@
       <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -2553,11 +2574,12 @@
       <c r="C14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
@@ -2567,9 +2589,10 @@
       <c r="C15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2579,9 +2602,10 @@
       <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
@@ -2591,9 +2615,10 @@
       <c r="C17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -2603,11 +2628,12 @@
       <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>18</v>
       </c>
@@ -2618,8 +2644,9 @@
         <v>8</v>
       </c>
       <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>19</v>
       </c>
@@ -2630,8 +2657,9 @@
         <v>5</v>
       </c>
       <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -2641,9 +2669,10 @@
       <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="43"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
@@ -2653,11 +2682,12 @@
       <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>50</v>
       </c>
@@ -2667,11 +2697,12 @@
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="43"/>
+      <c r="E23" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
@@ -2681,9 +2712,10 @@
       <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
@@ -2693,9 +2725,10 @@
       <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="43"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>53</v>
       </c>
@@ -2705,11 +2738,12 @@
       <c r="C26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -2719,11 +2753,12 @@
       <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>37</v>
       </c>
@@ -2733,11 +2768,12 @@
       <c r="C28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>20</v>
       </c>
@@ -2747,11 +2783,12 @@
       <c r="C29" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
@@ -2762,8 +2799,9 @@
         <v>8</v>
       </c>
       <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>27</v>
       </c>
@@ -2774,8 +2812,9 @@
         <v>8</v>
       </c>
       <c r="D31" s="26"/>
-    </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>28</v>
       </c>
@@ -2785,11 +2824,12 @@
       <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>29</v>
       </c>
@@ -2800,8 +2840,9 @@
         <v>10</v>
       </c>
       <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>21</v>
       </c>
@@ -2812,8 +2853,9 @@
         <v>8</v>
       </c>
       <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>22</v>
       </c>
@@ -2824,8 +2866,9 @@
         <v>8</v>
       </c>
       <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>23</v>
       </c>
@@ -2835,11 +2878,12 @@
       <c r="C36" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>24</v>
       </c>
@@ -2849,11 +2893,12 @@
       <c r="C37" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>25</v>
       </c>
@@ -2864,8 +2909,9 @@
         <v>10</v>
       </c>
       <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>32</v>
       </c>
@@ -2875,11 +2921,12 @@
       <c r="C39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
         <v>34</v>
       </c>
@@ -2889,11 +2936,12 @@
       <c r="C40" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>36</v>
       </c>
@@ -2903,9 +2951,10 @@
       <c r="C41" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="24"/>
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>56</v>
       </c>
@@ -2915,11 +2964,12 @@
       <c r="C42" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>57</v>
       </c>
@@ -2929,9 +2979,10 @@
       <c r="C43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="34"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="24"/>
+      <c r="E43" s="34"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>59</v>
       </c>
@@ -2941,9 +2992,10 @@
       <c r="C44" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="34"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="20"/>
+      <c r="E44" s="34"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>61</v>
       </c>
@@ -2953,9 +3005,10 @@
       <c r="C45" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="34"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="24"/>
+      <c r="E45" s="34"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
         <v>62</v>
       </c>
@@ -2965,11 +3018,12 @@
       <c r="C46" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>63</v>
       </c>
@@ -2980,8 +3034,9 @@
         <v>10</v>
       </c>
       <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>77</v>
       </c>
@@ -2991,11 +3046,12 @@
       <c r="C48" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="34"/>
+      <c r="E48" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>70</v>
       </c>
@@ -3006,8 +3062,9 @@
         <v>5</v>
       </c>
       <c r="D49" s="34"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="34"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
         <v>73</v>
       </c>
@@ -3017,11 +3074,12 @@
       <c r="C50" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="34"/>
+      <c r="E50" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>76</v>
       </c>
@@ -3031,9 +3089,10 @@
       <c r="C51" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="34"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="36"/>
+      <c r="E51" s="34"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>75</v>
       </c>
@@ -3043,11 +3102,12 @@
       <c r="C52" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="34"/>
+      <c r="E52" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>78</v>
       </c>
@@ -3057,11 +3117,12 @@
       <c r="C53" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="36"/>
+      <c r="E53" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>79</v>
       </c>
@@ -3071,9 +3132,10 @@
       <c r="C54" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="34"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="36"/>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
         <v>81</v>
       </c>
@@ -3083,9 +3145,10 @@
       <c r="C55" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="34"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="36"/>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>82</v>
       </c>
@@ -3095,11 +3158,12 @@
       <c r="C56" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="44"/>
+      <c r="E56" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>83</v>
       </c>
@@ -3109,11 +3173,12 @@
       <c r="C57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="43"/>
+      <c r="E57" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>84</v>
       </c>
@@ -3123,11 +3188,12 @@
       <c r="C58" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="44"/>
+      <c r="E58" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>85</v>
       </c>
@@ -3137,11 +3203,12 @@
       <c r="C59" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="43"/>
+      <c r="E59" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>86</v>
       </c>
@@ -3151,9 +3218,10 @@
       <c r="C60" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="44"/>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>87</v>
       </c>
@@ -3163,9 +3231,10 @@
       <c r="C61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="42"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="43"/>
+      <c r="E61" s="42"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>89</v>
       </c>
@@ -3175,11 +3244,12 @@
       <c r="C62" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="43"/>
+      <c r="E62" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>91</v>
       </c>
@@ -3189,11 +3259,12 @@
       <c r="C63" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D63" s="49"/>
+      <c r="E63" s="48" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>92</v>
       </c>
@@ -3203,7 +3274,8 @@
       <c r="C64" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="44"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/api_document/staging_api_doc.xlsx
+++ b/resources/api_document/staging_api_doc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="160">
   <si>
     <t>API_NAME</t>
   </si>
@@ -135,49 +135,6 @@
     <t>{
   "description": "#description",
   "name": "#name"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "title": "#title",
-  "description": "#description",
-  "tags": [
-    "#tags1"
-  ],
-  "subject": {
-    "id": #subjectId,
-    "name": "#subjectName"
-  },
-  "book": {
-    "bookTitle": "#bookTitle",
-    "bookAuthor": "#bookAuthor",
-    "chapter": "#bookChapter"
-  },
-  "purchaseInformation": {
-    "purchasedDate": #purchasedDate,
-    "price": #purchaseInformationPrice,
-    "sku": "#purchaseInformationsku"
-  },
-  "notificationSettings": {
-    "areNotificationsEnabled": #areNotificationsEnabled,
-    "notificationTime": "#notificationTime",
-    "notificationFrequency": "#notificationFrequency"
-  },
-  "categoryId": "#categoryId",
-  "examDate": #examDate,
-  "userId": "#userId",
-  "parentDeckId": "#parentDeckId",
-  "tempDeckId": "#tempDeckId",
-  "archived": #archived,
-  "cardPreview": #cardPreview,
-  "noOfCards": #noOfCards,
-  "progress": #progress,
-  "downloads": #downloads,
-  "deckAuthor": "#deckAuthorName",
-  "deckAuthorId": "#deckAuthorId",
-  "thumbnailUrl": "#thumbnailUrl",
-  "status": "#status",
-  "starred": #starred
 }</t>
   </si>
   <si>
@@ -308,57 +265,6 @@
     <t>Edit MCQ Type Question using Aggregation Service</t>
   </si>
   <si>
-    <t>[
-  {
-    "activityId": "#activityId",
-    "activityType": "#activityType",
-    "deck": {
-  "title": "#title",
-  "description": "#description",
-  "tags": [
-    "#tags1"
-  ],
-  "subject": {
-    "id": #subjectId,
-    "name": "#subjectName"
-  },
-  "book": {
-    "bookTitle": "#bookTitle",
-    "bookAuthor": "#bookAuthor",
-    "chapter": "#bookChapter"
-  },
-  "purchaseInformation": {
-    "purchasedDate": #purchasedDate,
-    "price": #purchaseInformationPrice,
-    "sku": "#purchaseInformationsku"
-  },
-  "notificationSettings": {
-    "areNotificationsEnabled": #areNotificationsEnabled,
-    "notificationTime": "#notificationTime",
-    "notificationFrequency": "#notificationFrequency"
-  },
-  "categoryId": "#categoryId",
-  "examDate": #examDate,
-  "userId": "#userId",
-  "parentDeckId": "#parentDeckId",
-  "tempDeckId": "#tempDeckId",
-  "archived": #archived,
-  "cardPreview": #cardPreview,
-  "noOfCards": #noOfCards,
-  "progress": #progress,
-  "downloads": #downloads,
-  "deckAuthor": "#deckAuthorName",
-  "deckAuthorId": "#deckAuthorId",
-  "thumbnailUrl": "#thumbnailUrl",
-  "status": "#status",
-  "starred": #starred
-},
-    "deckId": "#deckId",
-    "serverDate": "#serverDate"
-  }
-]</t>
-  </si>
-  <si>
     <t>Sync API</t>
   </si>
   <si>
@@ -384,63 +290,6 @@
   </si>
   <si>
     <t>https://smartcards.prd-prsn.com/health</t>
-  </si>
-  <si>
-    <t>{
-  "archived": #isArchived,
-  "book": {
-    "bookAuthor": "#bookAuthorName",
-    "bookTitle": "#bookTitle",
-    "chapter": "#chapter"
-  },
-  "cardPreview": #cardPreview,
-  "categoryId": "#categoryId",
-  "createdAt": "#createdAt",
-  "deckAuthor": "#deckAuthorName",
-  "deckAuthorId": "#deckAuthorId",
-  "description": "#description",
-  "downloads": #downloads,
-  "epochTime": {
-    "createdAt": "",
-    "updatedAt": ""
-  },
-  "examDate": "2018-01-30T04:03:33.042Z",
-  "examReminder": {
-    "endDate": "2018-01-30T04:03:33.042Z",
-    "startDate": "2018-01-30T04:03:33.042Z",
-    "time": "#time"
-  },
-  "expert": true,
-  "expertDeck": true,
-  "id": "#id",
-  "keywords": [
-    "#keywords"
-  ],
-  "noOfCards": #noOfCards,
-  "notificationSettings": {
-    "areNotificationsEnabled": #areNotificationsEnabled,
-    "notificationFrequency": "#notificationFrequency",
-    "notificationTime": "#notificationTime"
-  },
-  "parentDeckId": "#parentDeckId",
-  "progress": #progress,
-  "purchaseInfo": {
-    "price": #price,
-    "purchasedDate": "2018-01-30T04:03:33.042Z",
-    "sku": "#sku"
-  },
-  "starred": #starred,
-  "status": "#status",
-  "subjectId": "#subjectId",
-  "tags": [
-    "#tags"
-  ],
-  "tempDeckId": "#tempDeckId",
-  "thumbnailUrl": "#thumbnailUrl",
-  "title": "#title",
-  "updatedAt": "2018-01-30T04:03:33.042Z",
-  "userId": "#userId"
-}</t>
   </si>
   <si>
     <t>{
@@ -655,6 +504,9 @@
     <t>Send A Feedback</t>
   </si>
   <si>
+    <t>http://10.199.253.83:8082/api/feedback</t>
+  </si>
+  <si>
     <t>{ 
  "comment": "#comment",
  "username": "#username",
@@ -665,6 +517,9 @@
 }</t>
   </si>
   <si>
+    <t>http://10.199.253.83:8082/api/feedback/apps/sfc_mvp</t>
+  </si>
+  <si>
     <t>Send A Feedback using Aggregation Service</t>
   </si>
   <si>
@@ -675,6 +530,9 @@
   </si>
   <si>
     <t>Send Force Update</t>
+  </si>
+  <si>
+    <t>http://10.199.253.83:8082/api/version</t>
   </si>
   <si>
     <t>Get Force Update Latest Version</t>
@@ -689,9 +547,6 @@
 }</t>
   </si>
   <si>
-    <t>Get the default 9 decks Using Expert Deck Service</t>
-  </si>
-  <si>
     <t>Create All Type Question using Aggregation Service</t>
   </si>
   <si>
@@ -710,8 +565,228 @@
     <t>PLA Get Content API</t>
   </si>
   <si>
+    <t>Create Expert Bundle</t>
+  </si>
+  <si>
+    <t>Edit Expert Bundle</t>
+  </si>
+  <si>
+    <t>Get Expert Bundle</t>
+  </si>
+  <si>
+    <t>Create SKU</t>
+  </si>
+  <si>
+    <t>Edit SKU</t>
+  </si>
+  <si>
+    <t>Get All SKUs</t>
+  </si>
+  <si>
+    <t>Get All SKUs using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Delete SKU</t>
+  </si>
+  <si>
     <t>{
-  "archived": #isArchived,
+ "skuId":"#skuId",
+ "price":#price,
+ "type":"#type"
+}</t>
+  </si>
+  <si>
+    <t>Smart Card Creation Production Service</t>
+  </si>
+  <si>
+    <t>https://smartcards.prd-prsn.com</t>
+  </si>
+  <si>
+    <t>{
+"question": {
+        "timeout": #timeout,
+        "media": "#media",
+        "imageUrl": "#imageUrl",
+        "promptType": "#promptType"
+    },
+  "creatoredType": "#creatoredType",
+    "creatorPlatform": "#creatorPlatform",
+    "creatoredSource": "#creatoredSource",
+    "creatorId":"#creatorId",
+"title": "#title", 
+"userId": "#userId", 
+"isExpert": #isExpert, 
+"text": "#questionText"
+}</t>
+  </si>
+  <si>
+    <t>Get Expert Bundle using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Load Decks of a Bundle</t>
+  </si>
+  <si>
+    <t>Get a Bundle</t>
+  </si>
+  <si>
+    <t>Delete a Bundle</t>
+  </si>
+  <si>
+    <t>Find a Bundle</t>
+  </si>
+  <si>
+    <t>Find a Bundle using Aggregation Service</t>
+  </si>
+  <si>
+    <t>{
+    "subjectId": "#subjectId",
+    "title": "#title",
+    "status": #status,
+    "createdSource": "#createdSource",
+    "purchaseInfo": {
+     "sku": "#skuId",
+     "price": #price,
+  "status": "#purchaseStatus"
+    },
+    "book": {
+     "bookAuthor": "#bookAuthor",
+     "bookTitle": "#bookTitle"
+    },
+    "description": "#description",
+    "deckId": [
+     "#id1",
+     "#id2",
+     "#id3"
+    ],
+    "keywords": [
+     "#keyword1",
+     "#keyword2"
+    ],
+    "noOfDecks": #noOfDecks,
+    "authorId": "#authorId",
+    "previewCardIds": []
+}</t>
+  </si>
+  <si>
+    <t>BODY_TYPE</t>
+  </si>
+  <si>
+    <t>https://accounts.google.com/o/oauth2/token</t>
+  </si>
+  <si>
+    <t>FORM_DATA</t>
+  </si>
+  <si>
+    <t>File Upload</t>
+  </si>
+  <si>
+    <t>Get OAuth Access Token from Refresh Token</t>
+  </si>
+  <si>
+    <t>{
+  "title": "#title",
+  "description": "#description",
+  "tags": [
+    "#tags1"
+  ],
+  "subject": {
+    "id": #subjectId,
+    "name": "#subjectName"
+  },
+  "book": {
+    "bookTitle": "#bookTitle",
+    "bookAuthor": "#bookAuthor",
+    "chapter": "#bookChapter"
+  },
+  "purchaseInfo": {
+    "purchasedDate": #purchasedDate,
+    "price": #purchaseInformationPrice,
+    "sku": "#purchaseInformationsku"
+  },
+  "notificationSettings": {
+    "areNotificationsEnabled": #areNotificationsEnabled,
+    "notificationTime": "#notificationTime",
+    "notificationFrequency": "#notificationFrequency"
+  },
+  "categoryId": "#categoryId",
+  "examDate": #examDate,
+  "userId": "#userId",
+  "parentDeckId": "#parentDeckId",
+  "tempDeckId": "#tempDeckId",
+  "archived": #archived,
+  "cardPreview": #cardPreview,
+  "noOfCards": #noOfCards,
+  "progress": #progress,
+  "downloads": #downloads,
+  "deckAuthor": "#deckAuthorName",
+  "deckAuthorId": "#deckAuthorId",
+  "thumbnailUrl": "#thumbnailUrl",
+  "status": "#status",
+  "starred": #starred
+}</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "activityId": "#activityId",
+    "activityType": "#activityType",
+    "deck": {
+  "title": "#title",
+  "description": "#description",
+  "tags": [
+    "#tags1"
+  ],
+  "subject": {
+    "id": #subjectId,
+    "name": "#subjectName"
+  },
+  "book": {
+    "bookTitle": "#bookTitle",
+    "bookAuthor": "#bookAuthor",
+    "chapter": "#bookChapter"
+  },
+  "purchaseInfo": {
+    "purchasedDate": #purchasedDate,
+    "price": #purchaseInformationPrice,
+    "sku": "#purchaseInformationsku"
+  },
+  "notificationSettings": {
+    "areNotificationsEnabled": #areNotificationsEnabled,
+    "notificationTime": "#notificationTime",
+    "notificationFrequency": "#notificationFrequency"
+  },
+  "categoryId": "#categoryId",
+  "examDate": #examDate,
+  "userId": "#userId",
+  "parentDeckId": "#parentDeckId",
+  "tempDeckId": "#tempDeckId",
+  "archived": #archived,
+  "cardPreview": #cardPreview,
+  "noOfCards": #noOfCards,
+  "progress": #progress,
+  "downloads": #downloads,
+  "deckAuthor": "#deckAuthorName",
+  "deckAuthorId": "#deckAuthorId",
+  "thumbnailUrl": "#thumbnailUrl",
+  "status": "#status",
+  "starred": #starred
+},
+    "deckId": "#deckId",
+    "serverDate": "#serverDate"
+  }
+]</t>
+  </si>
+  <si>
+    <t>Search Expert Decks using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Get A Category in Aggregation Service</t>
+  </si>
+  <si>
+    <t>Get All Categories in Aggregation Service</t>
+  </si>
+  <si>
+    <t>{
   "book": {
     "bookAuthor": "#bookAuthorName",
     "bookTitle": "#bookTitle",
@@ -727,24 +802,12 @@
     "createdAt": "",
     "updatedAt": ""
   },
-  "examDate": "#examDate",
-  "examReminder": {
-    "endDate": "2018-01-30T04:03:33.042Z",
-    "startDate": "2018-01-30T04:03:33.042Z",
-    "time": "#time"
-  },
   "expert": true,
   "expertDeck": true,
   "keywords": [
     "#keywords"
   ],
   "noOfCards": #noOfCards,
-  "notificationSettings": {
-    "areNotificationsEnabled": #areNotificationsEnabled,
-    "notificationFrequency": "#notificationFrequency",
-    "notificationTime": "#notificationTime"
-  },
-  "parentDeckId": "#parentDeckId",
   "progress": #progress,
   "purchaseInfo": {
     "price": #price,
@@ -760,117 +823,178 @@
   "tempDeckId": "#tempDeckId",
   "thumbnailUrl": "#thumbnailUrl",
   "title": "#title",
-  "updatedAt": "2018-01-30T04:03:33.042Z",
   "userId": "#userId"
 }</t>
   </si>
   <si>
-    <t>Create Expert Bundle</t>
+    <t>Archive Short Answer Type Question using Aggregation Service</t>
   </si>
   <si>
     <t>{
-  "subject":"#subject",
-  "title": "#title",
-  "status": #status,
-  "previewcards": #previewcards,
-  "skuId": "#skuId",
-  "bookAuthor": "#bookAuthor",
-  "bookTitle": "#bookTitle",
-  "description": "#description",
-  "deckId": ["#id1","#id2"],
-  "userId": "#userId",
-  "createdSource": "#createdSource",
-  "price": #price,
-  "keywords": ["#keyword1","#keyword2"],
-  "noOfDecks": #noOfDecks
+  "archived": #isArchived,
+  "creatorId": "#creatorId",
+  "creatorPlatform": "#creatorPlatform",
+  "creatoredSource": "#creatoredSource",
+  "creatoredType": "#creatoredType",
+  "deckId": "#deckId",
+  "tempQuestionId": "#tempQuestionId",
+  "kind": "#kind",
+  "deleted": #isDeleted,
+  "learningObjectives": [
+    "#learningObjectives"
+  ],
+  "question": {
+    "imageUrl": "#imageUrl",
+    "media": "#media",
+    "prompt": "#questionPrompt",
+    "promptType": "#promptType",
+    "timeout": #timeout
+  },
+  "rationale": "#rationale",
+  "stats": {
+    "boxId": #boxId,
+    "correctAttempts": #correctAttempts,
+    "inCorrectAttempts": #inCorrectAttempts,
+    "lastAswered": "#lastAswered",
+    "questionId": #questionId,
+    "skips": #skips,
+    "userId": #userId
+  },
+ "answers": [
+        {
+          "id": #correctAnswerId,
+          "value": "#correctAnswerValue",
+          "caseSensitive": #iscorrectAnswerCaseSensitive,
+          "type": "#correctAnswerType"
+        }
+  ],
+  "tags": [
+    "#tags"
+  ]
 }</t>
   </si>
   <si>
-    <t>Edit Expert Bundle</t>
-  </si>
-  <si>
-    <t>Get Expert Bundle</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/feedback</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/version</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/decks/onbording/users</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/aggregated_questions/text</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/decks</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/decks/users</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/questions</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/questions/copy</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/learninganalytics/recommendations</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/learninganalytics/activities</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/cards/cloud</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/store/purchase/decks</t>
-  </si>
-  <si>
-    <t>https://questionaggrigator.stg-prsn.com/api/questions/count</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/store</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/decks</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/decks/users</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/categories</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/sync</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/bundle/expert</t>
-  </si>
-  <si>
-    <t>https://deckapi.stg-prsn.com/api/store/users</t>
-  </si>
-  <si>
-    <t>https://questionservice.stg-prsn.com/api/questions</t>
-  </si>
-  <si>
-    <t>https://questionservice.stg-prsn.com/api/aggregated_questions/images/upload</t>
-  </si>
-  <si>
-    <t>https://pushnotification.stg-prsn.com/api/feedback</t>
-  </si>
-  <si>
-    <t>https://pushnotification.stg-prsn.com/api/feedback/apps/sfc_mvp</t>
-  </si>
-  <si>
-    <t>https://pushnotification.stg-prsn.com/api/version</t>
-  </si>
-  <si>
-    <t>https://ale-pla-prd-alespacedrepservice.prd-prsn.com/v1/flashcards/sfc/content</t>
-  </si>
-  <si>
-    <t>BODY_TYPE</t>
+    <t>Copy Decks using Question Service</t>
+  </si>
+  <si>
+    <t>Get Questions Count using Question Service</t>
+  </si>
+  <si>
+    <t>Get Questions using Question Service</t>
+  </si>
+  <si>
+    <t>Delete MCQ Type Question using Question Service</t>
+  </si>
+  <si>
+    <t>Get the default decks using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Purchase Bundle</t>
+  </si>
+  <si>
+    <t>Get All Decks For A User</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/aggregated_questions/text</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/decks</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/decks/users</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/questions</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/questions/copy</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/categories</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/learninganalytics/recommendations</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/learninganalytics/activities</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/store</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/cards/cloud</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/store/purchase/decks</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/feedback</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/version</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/decks/onbording/users</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/questions/count</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/store/users</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/store/sku</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/users/userId/bundle/expert</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/bundle/expert</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/cards/file</t>
+  </si>
+  <si>
+    <t>http://aggregationservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/store/purchase/bundles</t>
+  </si>
+  <si>
+    <t>http://deckservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/store</t>
+  </si>
+  <si>
+    <t>http://deckservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/decks</t>
+  </si>
+  <si>
+    <t>http://deckservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/decks/users</t>
+  </si>
+  <si>
+    <t>http://deckservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/categories</t>
+  </si>
+  <si>
+    <t>http://deckservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/sync</t>
+  </si>
+  <si>
+    <t>http://deckservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/bundle/expert</t>
+  </si>
+  <si>
+    <t>http://deckservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/store/users</t>
+  </si>
+  <si>
+    <t>http://deckservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/store/sku</t>
+  </si>
+  <si>
+    <t>http://questionservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/questions</t>
+  </si>
+  <si>
+    <t>http://questionservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/aggregated_questions/images/upload</t>
+  </si>
+  <si>
+    <t>http://questionservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/questions/copy</t>
+  </si>
+  <si>
+    <t>http://questionservice-pearson-prep-us1-stg-blue.bite.pearsondev.tech/api/questions/count</t>
+  </si>
+  <si>
+    <t>https://ale-pla-stg-alespacedrepservice.stg-prsn.com/v1/flashcards/sfc/content</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1079,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -978,38 +1102,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1024,9 +1122,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1034,9 +1129,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,15 +1195,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1132,15 +1220,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2361,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2386,905 +2465,1229 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B7" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="10" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B22" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="31"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="31"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="31"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="31"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="31"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="E59" s="31"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="38"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="B70" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="39"/>
+      <c r="E71" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="39"/>
+      <c r="E72" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="39"/>
+      <c r="E73" s="20"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="39"/>
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="D75" s="39"/>
+      <c r="E75" s="31"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D76" s="39"/>
+      <c r="E76" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="39"/>
+      <c r="E77" s="31"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="39"/>
+      <c r="E78" s="31"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="39"/>
+      <c r="E79" s="31"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="39"/>
+      <c r="E80" s="31"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="39"/>
+      <c r="E81" s="31"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="31"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="31"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="20" t="s">
+      <c r="D84" s="39"/>
+      <c r="E84" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="39"/>
+      <c r="E85" s="31"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="18" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="29"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="34"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="34"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="34"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="34"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="34"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="34"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="42"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="44"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="http://10.199.253.187:8070/api/questions"/>
     <hyperlink ref="B6" r:id="rId2" display="http://10.199.253.187:8070/api/questions"/>
-    <hyperlink ref="B7" r:id="rId3" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B7" r:id="rId3" display="http://questionservice-pearson-prep-us1-dev.bite.pearsondev.tech/api/questions"/>
     <hyperlink ref="B8" r:id="rId4" display="http://10.199.253.187:8070/api/questions"/>
     <hyperlink ref="B9" r:id="rId5" display="http://10.199.253.187:8070/api/questions"/>
-    <hyperlink ref="B10" r:id="rId6" display="http://10.199.253.187:8085/api/aggregated_questions/text"/>
+    <hyperlink ref="B10" r:id="rId6" display="http://aggregationservice-pearson-prep-us1-dev.bite.pearsondev.tech/api/aggregated_questions/text"/>
     <hyperlink ref="B11" r:id="rId7" display="http://10.199.253.187:8070/api/aggregated_questions/images/upload"/>
     <hyperlink ref="B13" r:id="rId8" display="http://10.199.253.187:8070/api/questions"/>
     <hyperlink ref="B14" r:id="rId9" display="http://10.199.253.187:8085/api/decks"/>
@@ -3293,49 +3696,69 @@
     <hyperlink ref="B16" r:id="rId12" display="http://10.199.253.187:8085/api/decks"/>
     <hyperlink ref="B18" r:id="rId13" display="http://10.199.253.187:8085/api/decks"/>
     <hyperlink ref="B19" r:id="rId14" display="http://10.199.253.187:8085/api/questions"/>
-    <hyperlink ref="B20" r:id="rId15" display="http://10.199.253.187:8085/api/questions/copy"/>
-    <hyperlink ref="B35:B38" r:id="rId16" display="http://10.98.199.63:8085/api/categories"/>
-    <hyperlink ref="B30:B33" r:id="rId17" display="http://10.98.199.63:8085/api/decks"/>
-    <hyperlink ref="B38" r:id="rId18" display="http://10.199.253.187:8090/api/categories"/>
-    <hyperlink ref="B34:B37" r:id="rId19" display="http://10.98.199.63:8085/api/categories"/>
-    <hyperlink ref="B33" r:id="rId20" display="http://10.199.253.187:8090/api/decks"/>
-    <hyperlink ref="B29:B32" r:id="rId21" display="http://10.98.199.63:8085/api/decks"/>
-    <hyperlink ref="B31" r:id="rId22" display="http://10.199.253.187:8090/api/decks/users"/>
-    <hyperlink ref="B39" r:id="rId23" display="http://10.199.253.187:8085/api/learninganalytics/recommendations"/>
-    <hyperlink ref="B40" r:id="rId24" display="http://10.199.253.187:8085/api/learninganalytics/activities"/>
-    <hyperlink ref="B37" r:id="rId25" display="http://10.199.253.187:8090/api/categories"/>
-    <hyperlink ref="B41" r:id="rId26" display="http://10.199.253.187:8090/api/store"/>
-    <hyperlink ref="B28" r:id="rId27" display="http://10.199.253.187:8090/api/store"/>
-    <hyperlink ref="B12" r:id="rId28" display="http://10.199.253.187:8070/api/questions"/>
-    <hyperlink ref="B21" r:id="rId29" display="http://10.199.253.187:8085/api/questions"/>
-    <hyperlink ref="B42" r:id="rId30" display="http://10.199.253.187:8090/api/sync"/>
-    <hyperlink ref="B43" r:id="rId31"/>
-    <hyperlink ref="B44" r:id="rId32"/>
-    <hyperlink ref="B45" r:id="rId33"/>
-    <hyperlink ref="B46" r:id="rId34" display="http://10.199.253.187:8090/api/store"/>
-    <hyperlink ref="B47" r:id="rId35" display="http://10.199.253.187:8090/api/store"/>
-    <hyperlink ref="B48" r:id="rId36" display="http://10.199.253.187:8085/api/cards/cloud"/>
-    <hyperlink ref="B49" r:id="rId37" display="http://10.199.253.187:8085/api/store/purchase/decks"/>
-    <hyperlink ref="B2" r:id="rId38"/>
-    <hyperlink ref="B51" r:id="rId39" display="http://10.199.253.83:8082/api/feedback/apps/sfc_mvp"/>
-    <hyperlink ref="B50" r:id="rId40"/>
-    <hyperlink ref="B52" r:id="rId41" display="http://10.199.240.44:8085/api/feedback"/>
-    <hyperlink ref="B53" r:id="rId42" display="http://10.199.253.83:8082/api/version"/>
-    <hyperlink ref="B54" r:id="rId43" display="http://10.199.240.44:8085/api/version"/>
-    <hyperlink ref="B55" r:id="rId44" display="http://10.199.240.44:8085/api/decks/onbording/users"/>
-    <hyperlink ref="B57" r:id="rId45" display="http://10.199.253.187:8085/api/questions"/>
-    <hyperlink ref="B56" r:id="rId46" display="http://10.199.253.187:8085/api/questions"/>
-    <hyperlink ref="B59" r:id="rId47" display="http://10.199.253.187:8070/api/questions"/>
-    <hyperlink ref="B58" r:id="rId48" display="http://10.199.253.187:8070/api/questions"/>
-    <hyperlink ref="B60" r:id="rId49" display="http://10.199.253.187:8085/api/questions/count"/>
-    <hyperlink ref="B61" r:id="rId50"/>
-    <hyperlink ref="B63" r:id="rId51" display="http://10.199.253.187:8090/api/bundle/expert"/>
-    <hyperlink ref="B64" r:id="rId52" display="http://10.199.253.187:8090/api/store/users"/>
-    <hyperlink ref="B62" r:id="rId53" display="http://10.199.253.187:8090/api/bundle/expert"/>
-    <hyperlink ref="B27" r:id="rId54" display="http://10.199.253.187:8085/api/questions"/>
+    <hyperlink ref="B21" r:id="rId15" display="http://10.199.253.187:8085/api/questions/copy"/>
+    <hyperlink ref="B31:B34" r:id="rId16" display="http://10.98.199.63:8085/api/decks"/>
+    <hyperlink ref="B41" r:id="rId17" display="http://10.199.253.187:8090/api/categories"/>
+    <hyperlink ref="B34" r:id="rId18" display="http://10.199.253.187:8090/api/decks"/>
+    <hyperlink ref="B30:B33" r:id="rId19" display="http://10.98.199.63:8085/api/decks"/>
+    <hyperlink ref="B32" r:id="rId20" display="http://10.199.253.187:8090/api/decks/users"/>
+    <hyperlink ref="B42" r:id="rId21" display="http://10.199.253.187:8085/api/learninganalytics/recommendations"/>
+    <hyperlink ref="B43" r:id="rId22" display="http://10.199.253.187:8085/api/learninganalytics/activities"/>
+    <hyperlink ref="B40" r:id="rId23" display="http://10.199.253.187:8090/api/categories"/>
+    <hyperlink ref="B45" r:id="rId24" display="http://10.199.253.187:8085/api/store"/>
+    <hyperlink ref="B29" r:id="rId25" display="http://10.199.253.187:8090/api/store"/>
+    <hyperlink ref="B12" r:id="rId26" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B22" r:id="rId27" display="http://10.199.253.187:8085/api/questions"/>
+    <hyperlink ref="B46" r:id="rId28" display="http://10.199.253.187:8090/api/sync"/>
+    <hyperlink ref="B47" r:id="rId29"/>
+    <hyperlink ref="B48" r:id="rId30"/>
+    <hyperlink ref="B49" r:id="rId31"/>
+    <hyperlink ref="B50" r:id="rId32" display="http://10.199.253.187:8090/api/store"/>
+    <hyperlink ref="B51" r:id="rId33" display="http://deckservice-pearson-prep-us1-dev.bite.pearsondev.tech/api/store"/>
+    <hyperlink ref="B52" r:id="rId34" display="http://10.199.253.187:8085/api/cards/cloud"/>
+    <hyperlink ref="B53" r:id="rId35" display="http://10.199.253.187:8085/api/store/purchase/decks"/>
+    <hyperlink ref="B2" r:id="rId36"/>
+    <hyperlink ref="B55" r:id="rId37"/>
+    <hyperlink ref="B54" r:id="rId38"/>
+    <hyperlink ref="B56" r:id="rId39" display="http://10.199.240.44:8085/api/feedback"/>
+    <hyperlink ref="B57" r:id="rId40"/>
+    <hyperlink ref="B58" r:id="rId41" display="http://10.199.240.44:8085/api/version"/>
+    <hyperlink ref="B59" r:id="rId42" display="http://10.199.240.44:8085/api/decks/onbording/users"/>
+    <hyperlink ref="B61" r:id="rId43" display="http://10.199.253.187:8085/api/questions"/>
+    <hyperlink ref="B60" r:id="rId44" display="http://10.199.253.187:8085/api/questions"/>
+    <hyperlink ref="B63" r:id="rId45" display="http://questionservice-pearson-prep-us1-dev.bite.pearsondev.tech/api/questions"/>
+    <hyperlink ref="B62" r:id="rId46" display="http://10.199.253.187:8070/api/questions"/>
+    <hyperlink ref="B65" r:id="rId47" display="http://10.199.253.187:8085/api/questions/count"/>
+    <hyperlink ref="B66" r:id="rId48" display="https://ale-pla-prd-alespacedrepservice.prd-prsn.com/v1/flashcards/sfc/content"/>
+    <hyperlink ref="B68" r:id="rId49" display="http://10.199.253.187:8090/api/bundle/expert"/>
+    <hyperlink ref="B69" r:id="rId50" display="http://10.199.253.187:8090/api/store/users"/>
+    <hyperlink ref="B67" r:id="rId51" display="http://10.199.253.187:8090/api/bundle/expert"/>
+    <hyperlink ref="B75" r:id="rId52" display="http://10.199.253.187:8090/api/store/sku"/>
+    <hyperlink ref="B74" r:id="rId53" display="http://10.199.253.187:8085/api/store/sku"/>
+    <hyperlink ref="B76" r:id="rId54"/>
+    <hyperlink ref="B70" r:id="rId55" display="http://10.199.253.187:8085/api/store/users"/>
+    <hyperlink ref="B77" r:id="rId56" display="http://10.199.253.187:8085/api/users/userId/bundle/expert"/>
+    <hyperlink ref="B78" r:id="rId57" display="http://10.199.253.187:8090/api/bundle/expert"/>
+    <hyperlink ref="B79" r:id="rId58" display="http://10.199.253.187:8090/api/bundle/expert"/>
+    <hyperlink ref="B80" r:id="rId59" display="http://10.199.253.187:8090/api/bundle/expert"/>
+    <hyperlink ref="B81" r:id="rId60" display="http://10.199.253.187:8085/api/bundle/expert"/>
+    <hyperlink ref="B82" r:id="rId61"/>
+    <hyperlink ref="B83" r:id="rId62" display="http://10.199.253.187:8085/api/cards/file"/>
+    <hyperlink ref="B44" r:id="rId63" display="http://10.199.253.187:8090/api/store"/>
+    <hyperlink ref="B37" r:id="rId64" display="http://10.199.253.187:8085/api/categories"/>
+    <hyperlink ref="B36" r:id="rId65" display="http://10.199.253.187:8085/api/categories"/>
+    <hyperlink ref="B20" r:id="rId66" display="http://10.199.253.187:8070/api/questions/copy"/>
+    <hyperlink ref="B64" r:id="rId67" display="http://10.199.253.187:8070/api/questions/count"/>
+    <hyperlink ref="B85" r:id="rId68" display="http://questionservice-pearson-prep-us1-dev.bite.pearsondev.tech/api/questions"/>
+    <hyperlink ref="B84" r:id="rId69" display="http://10.199.253.187:8085/api/questions"/>
+    <hyperlink ref="B73" r:id="rId70" display="http://10.199.253.187:8090/api/store/sku"/>
+    <hyperlink ref="B86" r:id="rId71" display="http://questionservice-pearson-prep-us1-dev.bite.pearsondev.tech/api/questions"/>
+    <hyperlink ref="B87" r:id="rId72" display="http://aggregationservice-pearson-prep-us1-dev.bite.pearsondev.tech/api/store/purchase/bundles"/>
+    <hyperlink ref="B88" r:id="rId73" display="http://aggregationservice-pearson-prep-us1-dev.bite.pearsondev.tech/api/decks/users"/>
+    <hyperlink ref="B71" r:id="rId74" display="http://deckservice-pearson-prep-us1-dev.bite.pearsondev.tech/api/store/sku"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId75"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
